--- a/in-progress/Mortezaei_2011_CompSciTech/SUBMISSION/S11/S11_dampingfactor.xlsx
+++ b/in-progress/Mortezaei_2011_CompSciTech/SUBMISSION/S11/S11_dampingfactor.xlsx
@@ -14,174 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Frequency (Hz)</t>
   </si>
   <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>0.015885679390757055</t>
-  </si>
-  <si>
-    <t>0.024063225450788078</t>
-  </si>
-  <si>
-    <t>0.03745900919142853</t>
-  </si>
-  <si>
-    <t>0.06026159768258792</t>
-  </si>
-  <si>
-    <t>0.09223673555540532</t>
-  </si>
-  <si>
-    <t>0.14592339145520322</t>
-  </si>
-  <si>
-    <t>0.23084260779875762</t>
-  </si>
-  <si>
-    <t>0.35338416650781534</t>
-  </si>
-  <si>
-    <t>0.5682461491078326</t>
-  </si>
-  <si>
-    <t>0.9439265386431546</t>
-  </si>
-  <si>
-    <t>1.3532677268704687</t>
-  </si>
-  <si>
-    <t>1.9403128473367546</t>
-  </si>
-  <si>
-    <t>2.781634899812688</t>
-  </si>
-  <si>
-    <t>3.988206338571694</t>
-  </si>
-  <si>
-    <t>5.71756681108939</t>
-  </si>
-  <si>
-    <t>8.196568846513554</t>
-  </si>
-  <si>
-    <t>11.749486217386485</t>
-  </si>
-  <si>
-    <t>16.84254209060033</t>
-  </si>
-  <si>
-    <t>24.144498418114097</t>
-  </si>
-  <si>
-    <t>34.61090005438907</t>
-  </si>
-  <si>
-    <t>49.61347861225608</t>
-  </si>
-  <si>
-    <t>71.78258445209192</t>
-  </si>
-  <si>
-    <t>101.93038438246099</t>
-  </si>
-  <si>
-    <t>146.0943117646101</t>
-  </si>
-  <si>
-    <t>209.40756675201516</t>
-  </si>
-  <si>
-    <t>300.1316749808718</t>
-  </si>
-  <si>
-    <t>430.14556809296596</t>
-  </si>
-  <si>
-    <t>15.651812348139883</t>
-  </si>
-  <si>
-    <t>12.254942248296764</t>
-  </si>
-  <si>
-    <t>9.494942330168486</t>
-  </si>
-  <si>
-    <t>7.050908451748037</t>
-  </si>
-  <si>
-    <t>6.193897261525411</t>
-  </si>
-  <si>
-    <t>5.0109725225136845</t>
-  </si>
-  <si>
-    <t>4.118365137992479</t>
-  </si>
-  <si>
-    <t>3.4908619683768567</t>
-  </si>
-  <si>
-    <t>2.8725131649415667</t>
-  </si>
-  <si>
-    <t>2.477145838482702</t>
-  </si>
-  <si>
-    <t>2.1934450058522708</t>
-  </si>
-  <si>
-    <t>1.8992500946971285</t>
-  </si>
-  <si>
-    <t>1.6969985101727245</t>
-  </si>
-  <si>
-    <t>1.477567753532786</t>
-  </si>
-  <si>
-    <t>1.3165689135582723</t>
-  </si>
-  <si>
-    <t>1.1810369380234744</t>
-  </si>
-  <si>
-    <t>1.0786269166373992</t>
-  </si>
-  <si>
-    <t>0.9840705667925497</t>
-  </si>
-  <si>
-    <t>0.8875658923695293</t>
-  </si>
-  <si>
-    <t>0.8072299015373109</t>
-  </si>
-  <si>
-    <t>0.7372334189393448</t>
-  </si>
-  <si>
-    <t>0.6821893435658042</t>
-  </si>
-  <si>
-    <t>0.6378707542388828</t>
-  </si>
-  <si>
-    <t>0.6003527750483516</t>
-  </si>
-  <si>
-    <t>0.5563566384638515</t>
-  </si>
-  <si>
-    <t>0.526448279633413</t>
-  </si>
-  <si>
-    <t>0.5023199431918091</t>
+    <t>Damping factor</t>
   </si>
 </sst>
 </file>
@@ -554,219 +392,219 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>29</v>
+      <c r="A2">
+        <v>0.01588567939075705</v>
+      </c>
+      <c r="B2">
+        <v>15.65181234813988</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>30</v>
+      <c r="A3">
+        <v>0.02406322545078808</v>
+      </c>
+      <c r="B3">
+        <v>12.25494224829676</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>31</v>
+      <c r="A4">
+        <v>0.03745900919142853</v>
+      </c>
+      <c r="B4">
+        <v>9.494942330168486</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>32</v>
+      <c r="A5">
+        <v>0.06026159768258792</v>
+      </c>
+      <c r="B5">
+        <v>7.050908451748037</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>33</v>
+      <c r="A6">
+        <v>0.09223673555540532</v>
+      </c>
+      <c r="B6">
+        <v>6.193897261525411</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>34</v>
+      <c r="A7">
+        <v>0.1459233914552032</v>
+      </c>
+      <c r="B7">
+        <v>5.010972522513685</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>35</v>
+      <c r="A8">
+        <v>0.2308426077987576</v>
+      </c>
+      <c r="B8">
+        <v>4.118365137992479</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>36</v>
+      <c r="A9">
+        <v>0.3533841665078153</v>
+      </c>
+      <c r="B9">
+        <v>3.490861968376857</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>37</v>
+      <c r="A10">
+        <v>0.5682461491078326</v>
+      </c>
+      <c r="B10">
+        <v>2.872513164941567</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>38</v>
+      <c r="A11">
+        <v>0.9439265386431546</v>
+      </c>
+      <c r="B11">
+        <v>2.477145838482702</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>39</v>
+      <c r="A12">
+        <v>1.353267726870469</v>
+      </c>
+      <c r="B12">
+        <v>2.193445005852271</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>40</v>
+      <c r="A13">
+        <v>1.940312847336755</v>
+      </c>
+      <c r="B13">
+        <v>1.899250094697128</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>41</v>
+      <c r="A14">
+        <v>2.781634899812688</v>
+      </c>
+      <c r="B14">
+        <v>1.696998510172725</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>42</v>
+      <c r="A15">
+        <v>3.988206338571694</v>
+      </c>
+      <c r="B15">
+        <v>1.477567753532786</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>43</v>
+      <c r="A16">
+        <v>5.71756681108939</v>
+      </c>
+      <c r="B16">
+        <v>1.316568913558272</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>44</v>
+      <c r="A17">
+        <v>8.196568846513554</v>
+      </c>
+      <c r="B17">
+        <v>1.181036938023474</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" t="s">
-        <v>45</v>
+      <c r="A18">
+        <v>11.74948621738648</v>
+      </c>
+      <c r="B18">
+        <v>1.078626916637399</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" t="s">
-        <v>46</v>
+      <c r="A19">
+        <v>16.84254209060033</v>
+      </c>
+      <c r="B19">
+        <v>0.9840705667925497</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" t="s">
-        <v>47</v>
+      <c r="A20">
+        <v>24.1444984181141</v>
+      </c>
+      <c r="B20">
+        <v>0.8875658923695293</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" t="s">
-        <v>48</v>
+      <c r="A21">
+        <v>34.61090005438907</v>
+      </c>
+      <c r="B21">
+        <v>0.8072299015373109</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" t="s">
-        <v>49</v>
+      <c r="A22">
+        <v>49.61347861225608</v>
+      </c>
+      <c r="B22">
+        <v>0.7372334189393448</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>50</v>
+      <c r="A23">
+        <v>71.78258445209192</v>
+      </c>
+      <c r="B23">
+        <v>0.6821893435658042</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>51</v>
+      <c r="A24">
+        <v>101.930384382461</v>
+      </c>
+      <c r="B24">
+        <v>0.6378707542388828</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" t="s">
-        <v>52</v>
+      <c r="A25">
+        <v>146.0943117646101</v>
+      </c>
+      <c r="B25">
+        <v>0.6003527750483516</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" t="s">
-        <v>53</v>
+      <c r="A26">
+        <v>209.4075667520152</v>
+      </c>
+      <c r="B26">
+        <v>0.5563566384638515</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" t="s">
-        <v>54</v>
+      <c r="A27">
+        <v>300.1316749808718</v>
+      </c>
+      <c r="B27">
+        <v>0.526448279633413</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" t="s">
-        <v>55</v>
+      <c r="A28">
+        <v>430.145568092966</v>
+      </c>
+      <c r="B28">
+        <v>0.5023199431918091</v>
       </c>
     </row>
   </sheetData>
